--- a/data/trans_orig/P17A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>79270</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63397</v>
+        <v>63212</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97737</v>
+        <v>97560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1673160179091973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1338115839535295</v>
+        <v>0.1334211810558958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2062926790575471</v>
+        <v>0.2059197683953179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>74993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59940</v>
+        <v>60195</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90956</v>
+        <v>91217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2445304872957588</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.195447241733365</v>
+        <v>0.1962788555264018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2965832069841128</v>
+        <v>0.2974337809518626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -786,19 +786,19 @@
         <v>154263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132899</v>
+        <v>133255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>176363</v>
+        <v>176501</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.197657431402159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1702830132993959</v>
+        <v>0.1707397496972698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2259739513865687</v>
+        <v>0.2261512268713999</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>394506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376039</v>
+        <v>376216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410379</v>
+        <v>410564</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8326839820908027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.793707320942453</v>
+        <v>0.7940802316046818</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8661884160464705</v>
+        <v>0.8665788189441043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>223</v>
@@ -836,19 +836,19 @@
         <v>231687</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>215724</v>
+        <v>215463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246740</v>
+        <v>246485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7554695127042412</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7034167930158872</v>
+        <v>0.7025662190481375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8045527582666351</v>
+        <v>0.8037211444735982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>603</v>
@@ -857,19 +857,19 @@
         <v>626194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>604094</v>
+        <v>603956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>647558</v>
+        <v>647202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.802342568597841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7740260486134314</v>
+        <v>0.7738487731286001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8297169867006041</v>
+        <v>0.8292602503027302</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>62511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48107</v>
+        <v>49201</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78538</v>
+        <v>80085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1703592828442272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1311057272832684</v>
+        <v>0.1340862460646692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2140378360769933</v>
+        <v>0.2182538141073352</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -982,19 +982,19 @@
         <v>98409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84513</v>
+        <v>82750</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115793</v>
+        <v>116662</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2646376541303671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2272673972891689</v>
+        <v>0.2225273993964743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3113840975968903</v>
+        <v>0.3137204029412334</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -1003,19 +1003,19 @@
         <v>160920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>136845</v>
+        <v>140576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182786</v>
+        <v>183440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2178130742065536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1852256414913351</v>
+        <v>0.1902764470409872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2474096307304702</v>
+        <v>0.2482944138193803</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>304423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>288396</v>
+        <v>286849</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>318827</v>
+        <v>317733</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8296407171557728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7859621639230069</v>
+        <v>0.7817461858926649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8688942727167317</v>
+        <v>0.8659137539353309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>269</v>
@@ -1053,19 +1053,19 @@
         <v>273456</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256072</v>
+        <v>255203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>287352</v>
+        <v>289115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7353623458696329</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6886159024031097</v>
+        <v>0.6862795970587665</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7727326027108312</v>
+        <v>0.7774726006035257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>558</v>
@@ -1074,19 +1074,19 @@
         <v>577879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>556013</v>
+        <v>555359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>601954</v>
+        <v>598223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7821869257934464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7525903692695296</v>
+        <v>0.7517055861806192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8147743585086649</v>
+        <v>0.8097235529590125</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>117330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98530</v>
+        <v>99655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137295</v>
+        <v>137016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2163205234958829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1816595948838239</v>
+        <v>0.1837331064599568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2531297640824183</v>
+        <v>0.2526162117032554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1199,19 +1199,19 @@
         <v>59240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47570</v>
+        <v>47132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71511</v>
+        <v>72886</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3530769565043523</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2835204176725133</v>
+        <v>0.2809110222553822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4262151591329285</v>
+        <v>0.434407590267375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1220,19 +1220,19 @@
         <v>176570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154715</v>
+        <v>154389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200588</v>
+        <v>201920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2486300026855166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2178565740562411</v>
+        <v>0.2173964937975834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2824498841256526</v>
+        <v>0.2843265593638998</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>425059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>405094</v>
+        <v>405373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443859</v>
+        <v>442734</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7836794765041172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7468702359175817</v>
+        <v>0.7473837882967445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8183404051161762</v>
+        <v>0.8162668935400429</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -1270,19 +1270,19 @@
         <v>108542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96271</v>
+        <v>94896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120212</v>
+        <v>120650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6469230434956477</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5737848408670717</v>
+        <v>0.5655924097326255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7164795823274868</v>
+        <v>0.7190889777446179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>518</v>
@@ -1291,19 +1291,19 @@
         <v>533601</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>509583</v>
+        <v>508251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555456</v>
+        <v>555782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7513699973144834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7175501158743475</v>
+        <v>0.7156734406361002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.782143425943759</v>
+        <v>0.7826035062024166</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>289277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>258711</v>
+        <v>259316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>321501</v>
+        <v>318840</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2339453900008696</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2092256557959606</v>
+        <v>0.2097148528836816</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.26000561163342</v>
+        <v>0.257853858181138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -1416,19 +1416,19 @@
         <v>222470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>197666</v>
+        <v>199874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>248967</v>
+        <v>249999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3123382860409223</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2775139651039023</v>
+        <v>0.2806136211859737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3495381335379916</v>
+        <v>0.3509878432773098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>510</v>
@@ -1437,19 +1437,19 @@
         <v>511747</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>474441</v>
+        <v>474255</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>549653</v>
+        <v>556991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2625976239932822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2434545201090982</v>
+        <v>0.2433589355930502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2820482583749393</v>
+        <v>0.2858141279558815</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>947239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915015</v>
+        <v>917676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>977805</v>
+        <v>977200</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7660546099991303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7399943883665799</v>
+        <v>0.7421461418188621</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7907743442040394</v>
+        <v>0.7902851471163184</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -1487,19 +1487,19 @@
         <v>489803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463306</v>
+        <v>462274</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>514607</v>
+        <v>512399</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6876617139590777</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6504618664620082</v>
+        <v>0.6490121567226903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7224860348960978</v>
+        <v>0.7193863788140263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1404</v>
@@ -1508,19 +1508,19 @@
         <v>1437042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1399136</v>
+        <v>1391798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1474348</v>
+        <v>1474534</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7374023760067178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7179517416250607</v>
+        <v>0.7141858720441185</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7565454798909017</v>
+        <v>0.7566410644069498</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>82930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67060</v>
+        <v>69165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99155</v>
+        <v>101437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2365678031599628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1912972977627413</v>
+        <v>0.1973008385814801</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2828521384809422</v>
+        <v>0.2893618251233381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -1633,19 +1633,19 @@
         <v>199330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176929</v>
+        <v>176608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222023</v>
+        <v>221155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3504689714264903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3110825178643586</v>
+        <v>0.310517605711648</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3903678872535509</v>
+        <v>0.3888433910127298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -1654,19 +1654,19 @@
         <v>282260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253356</v>
+        <v>257387</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311350</v>
+        <v>314838</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3070355482532999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2755940462667301</v>
+        <v>0.2799792035521675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3386793735321233</v>
+        <v>0.3424735627614716</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>267625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251400</v>
+        <v>249118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>283495</v>
+        <v>281390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7634321968400372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7171478615190575</v>
+        <v>0.710638174876662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8087027022372587</v>
+        <v>0.8026991614185199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -1704,19 +1704,19 @@
         <v>369422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>346729</v>
+        <v>347597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>391823</v>
+        <v>392144</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6495310285735097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6096321127464492</v>
+        <v>0.6111566089872703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6889174821356414</v>
+        <v>0.6894823942883527</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>605</v>
@@ -1725,19 +1725,19 @@
         <v>637047</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>607957</v>
+        <v>604469</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>665951</v>
+        <v>661920</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6929644517467001</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6613206264678767</v>
+        <v>0.6575264372385284</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7244059537332695</v>
+        <v>0.7200207964478326</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>25061</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16494</v>
+        <v>16694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35730</v>
+        <v>35595</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08428091093544028</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05547053318593747</v>
+        <v>0.05614289430302461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1201628542630016</v>
+        <v>0.1197073027195111</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>387</v>
@@ -1850,19 +1850,19 @@
         <v>393928</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>363122</v>
+        <v>358431</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>426765</v>
+        <v>423885</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3154551577819413</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2907862412909201</v>
+        <v>0.2870295233750029</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3417512947594345</v>
+        <v>0.3394447947227139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>413</v>
@@ -1871,19 +1871,19 @@
         <v>418989</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>385540</v>
+        <v>387572</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>457224</v>
+        <v>453455</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2709953817206638</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2493613192902108</v>
+        <v>0.2506758020523519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2957252510040324</v>
+        <v>0.2932875313742075</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>272289</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261620</v>
+        <v>261755</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280856</v>
+        <v>280656</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9157190890645597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8798371457369988</v>
+        <v>0.8802926972804891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9445294668140626</v>
+        <v>0.9438571056969755</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>851</v>
@@ -1921,19 +1921,19 @@
         <v>854832</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>821995</v>
+        <v>824875</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>885638</v>
+        <v>890329</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6845448422180587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6582487052405656</v>
+        <v>0.6605552052772861</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7092137587090798</v>
+        <v>0.712970476624997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1130</v>
@@ -1942,19 +1942,19 @@
         <v>1127121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1088886</v>
+        <v>1092655</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1160570</v>
+        <v>1158538</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7290046182793362</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7042747489959676</v>
+        <v>0.7067124686257921</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7506386807097892</v>
+        <v>0.7493241979476473</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>656379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>613562</v>
+        <v>612929</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>705607</v>
+        <v>704862</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.200879851520166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1877758528452715</v>
+        <v>0.187582158121677</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2159457828517728</v>
+        <v>0.2157176733362851</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1022</v>
@@ -2067,19 +2067,19 @@
         <v>1048370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>996028</v>
+        <v>992421</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1102044</v>
+        <v>1103308</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3105257937983811</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2950221659781386</v>
+        <v>0.2939539311889714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3264240546004148</v>
+        <v>0.3267983949585389</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1680</v>
@@ -2088,19 +2088,19 @@
         <v>1704749</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1629332</v>
+        <v>1633731</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1778136</v>
+        <v>1780966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2565989106305834</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2452471689476056</v>
+        <v>0.2459093110725672</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2676451688793478</v>
+        <v>0.2680710390022473</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2611142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2561914</v>
+        <v>2562659</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2653959</v>
+        <v>2654592</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.799120148479834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7840542171482272</v>
+        <v>0.7842823266637151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8122241471547287</v>
+        <v>0.8124178418783231</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2272</v>
@@ -2138,19 +2138,19 @@
         <v>2327742</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2274068</v>
+        <v>2272804</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2380084</v>
+        <v>2383691</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6894742062016189</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6735759453995851</v>
+        <v>0.673201605041461</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7049778340218614</v>
+        <v>0.7060460688110286</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4818</v>
@@ -2159,19 +2159,19 @@
         <v>4938884</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4865497</v>
+        <v>4862667</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5014301</v>
+        <v>5009902</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7434010893694166</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7323548311206522</v>
+        <v>0.7319289609977527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7547528310523943</v>
+        <v>0.7540906889274328</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>77803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60818</v>
+        <v>61894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94313</v>
+        <v>97644</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1783184808983198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1393900891127423</v>
+        <v>0.1418562905606759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2161579583437484</v>
+        <v>0.2237923825246887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -2526,19 +2526,19 @@
         <v>79843</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65582</v>
+        <v>64513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98092</v>
+        <v>98031</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2568547360025883</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.210978468274812</v>
+        <v>0.2075394275079396</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3155617484180141</v>
+        <v>0.3153646419119743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>139</v>
@@ -2547,19 +2547,19 @@
         <v>157646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134283</v>
+        <v>136231</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>181466</v>
+        <v>183394</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2109926235929417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.179723871455353</v>
+        <v>0.1823310161845457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2428732493715844</v>
+        <v>0.2454535305025272</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>358511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>342001</v>
+        <v>338670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>375496</v>
+        <v>374420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8216815191016802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7838420416562516</v>
+        <v>0.7762076174753114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8606099108872577</v>
+        <v>0.8581437094393241</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -2597,19 +2597,19 @@
         <v>231006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>212757</v>
+        <v>212818</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245267</v>
+        <v>246336</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7431452639974117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6844382515819858</v>
+        <v>0.6846353580880251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.789021531725188</v>
+        <v>0.7924605724920603</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>544</v>
@@ -2618,19 +2618,19 @@
         <v>589516</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565696</v>
+        <v>563768</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>612879</v>
+        <v>610931</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7890073764070583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7571267506284156</v>
+        <v>0.7545464694974727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.820276128544647</v>
+        <v>0.8176689838154544</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>96021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78927</v>
+        <v>77735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117298</v>
+        <v>115400</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.230371790063316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1893596771279464</v>
+        <v>0.1865004721677431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2814194339861202</v>
+        <v>0.2768651738107983</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -2743,19 +2743,19 @@
         <v>96795</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80200</v>
+        <v>79389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112894</v>
+        <v>113727</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2871356012385433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2379060958565058</v>
+        <v>0.2355019394990047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3348907803227477</v>
+        <v>0.3373615798874097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -2764,19 +2764,19 @@
         <v>192816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>170197</v>
+        <v>169895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221325</v>
+        <v>220156</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2557532376303566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2257503557827344</v>
+        <v>0.2253500212544067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2935676185174289</v>
+        <v>0.29201673408312</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>320788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>299511</v>
+        <v>301409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>337882</v>
+        <v>339074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.769628209936684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7185805660138795</v>
+        <v>0.7231348261892023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8106403228720531</v>
+        <v>0.813499527832257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>214</v>
@@ -2814,19 +2814,19 @@
         <v>240312</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224213</v>
+        <v>223380</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>256907</v>
+        <v>257718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7128643987614567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6651092196772523</v>
+        <v>0.6626384201125903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.762093904143494</v>
+        <v>0.7644980605009953</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>503</v>
@@ -2835,19 +2835,19 @@
         <v>561100</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>532591</v>
+        <v>533760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583719</v>
+        <v>584021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7442467623696435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7064323814825711</v>
+        <v>0.70798326591688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7742496442172656</v>
+        <v>0.7746499787455934</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>156275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135181</v>
+        <v>135325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178669</v>
+        <v>180700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2490626047140591</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2154447759400965</v>
+        <v>0.21567282109793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2847533691739802</v>
+        <v>0.2879889831395064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -2960,19 +2960,19 @@
         <v>93006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78066</v>
+        <v>78703</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108022</v>
+        <v>109703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3589230574280371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3012673835017031</v>
+        <v>0.3037253505743156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4168733056078823</v>
+        <v>0.4233592959215781</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -2981,19 +2981,19 @@
         <v>249281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220435</v>
+        <v>223324</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>278586</v>
+        <v>280244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2811720772008362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2486354417849893</v>
+        <v>0.2518944073324924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3142260530095443</v>
+        <v>0.3160961236497725</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>471178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448784</v>
+        <v>446753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492272</v>
+        <v>492128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7509373952859409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7152466308260198</v>
+        <v>0.7120110168604935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7845552240599034</v>
+        <v>0.7843271789020699</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -3031,19 +3031,19 @@
         <v>166119</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151103</v>
+        <v>149422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181059</v>
+        <v>180422</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6410769425719629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5831266943921176</v>
+        <v>0.5766407040784219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6987326164982965</v>
+        <v>0.6962746494256844</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>599</v>
@@ -3052,19 +3052,19 @@
         <v>637297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607992</v>
+        <v>606334</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>666143</v>
+        <v>663254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7188279227991637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6857739469904556</v>
+        <v>0.6839038763502276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7513645582150108</v>
+        <v>0.7481055926675076</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>300534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269136</v>
+        <v>268881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331234</v>
+        <v>331509</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2606832418720224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2334481108331943</v>
+        <v>0.2332272365518402</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2873118126880573</v>
+        <v>0.2875509527247825</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>230</v>
@@ -3177,19 +3177,19 @@
         <v>250255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>223179</v>
+        <v>223243</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>277012</v>
+        <v>277567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3268089083487702</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2914497507981345</v>
+        <v>0.2915334768196132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3617509463425092</v>
+        <v>0.3624762612180909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -3198,19 +3198,19 @@
         <v>550789</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>510517</v>
+        <v>508181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>594546</v>
+        <v>591346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2870750223011054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2660847528165152</v>
+        <v>0.2648670767696284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3098811820027269</v>
+        <v>0.3082134694047249</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>852338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>821638</v>
+        <v>821363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>883736</v>
+        <v>883991</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7393167581279776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7126881873119425</v>
+        <v>0.7124490472752176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7665518891668056</v>
+        <v>0.7667727634481598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>480</v>
@@ -3248,19 +3248,19 @@
         <v>515498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>488741</v>
+        <v>488186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>542574</v>
+        <v>542510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6731910916512298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6382490536574911</v>
+        <v>0.6375237387819092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7085502492018657</v>
+        <v>0.7084665231803869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1281</v>
@@ -3269,19 +3269,19 @@
         <v>1367836</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1324079</v>
+        <v>1327279</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1408108</v>
+        <v>1410444</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7129249776988946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6901188179972733</v>
+        <v>0.6917865305952752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7339152471834848</v>
+        <v>0.7351329232303719</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>108191</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90190</v>
+        <v>91864</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126415</v>
+        <v>128639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2123117848437545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1769876703920314</v>
+        <v>0.1802719205539771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2480746788302255</v>
+        <v>0.2524376837533081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>259</v>
@@ -3394,19 +3394,19 @@
         <v>278191</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>250482</v>
+        <v>251979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>303928</v>
+        <v>304303</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3657750185267456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3293418810215913</v>
+        <v>0.3313105768684304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3996151073804541</v>
+        <v>0.4001074974140421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>363</v>
@@ -3415,19 +3415,19 @@
         <v>386382</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>354855</v>
+        <v>354590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>421360</v>
+        <v>424253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3042048128137538</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2793828822379891</v>
+        <v>0.2791740895097775</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3317432268288125</v>
+        <v>0.3340211184062196</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>401395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>383171</v>
+        <v>380947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419396</v>
+        <v>417722</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7876882151562454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7519253211697744</v>
+        <v>0.7475623162466918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8230123296079686</v>
+        <v>0.8197280794460228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>443</v>
@@ -3465,19 +3465,19 @@
         <v>482362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>456625</v>
+        <v>456250</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>510071</v>
+        <v>508574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6342249814732543</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6003848926195459</v>
+        <v>0.5998925025859578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6706581189784087</v>
+        <v>0.6686894231315695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>825</v>
@@ -3486,19 +3486,19 @@
         <v>883757</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>848779</v>
+        <v>845886</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>915284</v>
+        <v>915549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6957951871862462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6682567731711876</v>
+        <v>0.6659788815937797</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.720617117762011</v>
+        <v>0.7208259104902225</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>38365</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27055</v>
+        <v>28075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50460</v>
+        <v>51234</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1447969682725053</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1021102122941951</v>
+        <v>0.1059607427277539</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1904437730496945</v>
+        <v>0.1933662855629653</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>336</v>
@@ -3611,19 +3611,19 @@
         <v>356426</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>325474</v>
+        <v>324208</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>388285</v>
+        <v>384933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3223625224783118</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.294368676942124</v>
+        <v>0.293223940699737</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3511764626036602</v>
+        <v>0.3481447426150374</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>373</v>
@@ -3632,19 +3632,19 @@
         <v>394791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>359565</v>
+        <v>360998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>430122</v>
+        <v>428569</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2880367848025767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2623361429334322</v>
+        <v>0.2633813776238864</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3138139343898227</v>
+        <v>0.3126810104511266</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>226595</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214500</v>
+        <v>213726</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237905</v>
+        <v>236885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8552030317274947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8095562269503056</v>
+        <v>0.8066337144370347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8978897877058049</v>
+        <v>0.8940392572722461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>705</v>
@@ -3682,19 +3682,19 @@
         <v>749242</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>717383</v>
+        <v>720735</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>780194</v>
+        <v>781460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6776374775216881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6488235373963399</v>
+        <v>0.6518552573849627</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.705631323057876</v>
+        <v>0.7067760593002632</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>931</v>
@@ -3703,19 +3703,19 @@
         <v>975837</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>940506</v>
+        <v>942059</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1011063</v>
+        <v>1009630</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7119632151974233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6861860656101773</v>
+        <v>0.6873189895488734</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7376638570665678</v>
+        <v>0.7366186223761136</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>777190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>727649</v>
+        <v>725763</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>824959</v>
+        <v>832873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2280490820306135</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2135124054534897</v>
+        <v>0.212959079935204</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2420658151070314</v>
+        <v>0.2443881226221833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1075</v>
@@ -3828,19 +3828,19 @@
         <v>1154516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1096661</v>
+        <v>1097359</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1213541</v>
+        <v>1211130</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3262216972229498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3098740416544014</v>
+        <v>0.3100713522310645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3428997202494561</v>
+        <v>0.3422186619577381</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1790</v>
@@ -3849,19 +3849,19 @@
         <v>1931706</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1850297</v>
+        <v>1855479</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2004579</v>
+        <v>2013487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2780614282246405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2663428436487342</v>
+        <v>0.267088869338948</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2885512526391408</v>
+        <v>0.289833412745557</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2630804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2583035</v>
+        <v>2575121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2680345</v>
+        <v>2682231</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7719509179693865</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7579341848929686</v>
+        <v>0.7556118773778168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7864875945465104</v>
+        <v>0.787040920064796</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2205</v>
@@ -3899,19 +3899,19 @@
         <v>2384538</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2325513</v>
+        <v>2327924</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2442393</v>
+        <v>2441695</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6737783027770502</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.657100279750544</v>
+        <v>0.6577813380422619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6901259583455986</v>
+        <v>0.6899286477689355</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4683</v>
@@ -3920,19 +3920,19 @@
         <v>5015342</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4942469</v>
+        <v>4933561</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5096751</v>
+        <v>5091569</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7219385717753595</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7114487473608592</v>
+        <v>0.7101665872544431</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7336571563512658</v>
+        <v>0.7329111306610521</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>102523</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85199</v>
+        <v>84216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122268</v>
+        <v>121296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2389305190334072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1985568274944875</v>
+        <v>0.1962645164976894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2849448396177487</v>
+        <v>0.2826812989889056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -4287,19 +4287,19 @@
         <v>95846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77413</v>
+        <v>80697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113623</v>
+        <v>115289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2761707762181473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2230580213720864</v>
+        <v>0.2325207459091456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.327392681591814</v>
+        <v>0.3321913403458033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>183</v>
@@ -4308,19 +4308,19 @@
         <v>198370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174898</v>
+        <v>172669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223430</v>
+        <v>222860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2555825390232323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.225341131260365</v>
+        <v>0.2224697862107483</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2878709277591283</v>
+        <v>0.2871357608054348</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>326569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306824</v>
+        <v>307796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343893</v>
+        <v>344876</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7610694809665928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7150551603822514</v>
+        <v>0.7173187010110944</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8014431725055126</v>
+        <v>0.8037354835023106</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -4358,19 +4358,19 @@
         <v>251209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233432</v>
+        <v>231766</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269642</v>
+        <v>266358</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7238292237818527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6726073184081861</v>
+        <v>0.6678086596541967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7769419786279137</v>
+        <v>0.7674792540908544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>545</v>
@@ -4379,19 +4379,19 @@
         <v>577777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>552717</v>
+        <v>553287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>601249</v>
+        <v>603478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7444174609767676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7121290722408716</v>
+        <v>0.7128642391945651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.774658868739635</v>
+        <v>0.7775302137892514</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>93752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76867</v>
+        <v>77939</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111300</v>
+        <v>111366</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2485297323604993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2037681242570056</v>
+        <v>0.2066111607432109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2950482252732766</v>
+        <v>0.295223655878614</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -4504,19 +4504,19 @@
         <v>95669</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77498</v>
+        <v>78408</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112957</v>
+        <v>114600</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2569848275086119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.208175634573829</v>
+        <v>0.2106205920059868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3034263521193809</v>
+        <v>0.3078394512598329</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -4525,19 +4525,19 @@
         <v>189421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167054</v>
+        <v>166925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217061</v>
+        <v>215050</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2527293384971451</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2228876213732112</v>
+        <v>0.2227147214469967</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2896079941602148</v>
+        <v>0.28692479254271</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>283475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265927</v>
+        <v>265861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>300360</v>
+        <v>299288</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7514702676395008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7049517747267232</v>
+        <v>0.7047763441213859</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7962318757429943</v>
+        <v>0.7933888392567889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -4575,19 +4575,19 @@
         <v>276604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>259316</v>
+        <v>257673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>294775</v>
+        <v>293865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7430151724913882</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6965736478806192</v>
+        <v>0.6921605487401672</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7918243654261711</v>
+        <v>0.7893794079940132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>527</v>
@@ -4596,19 +4596,19 @@
         <v>560079</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>532439</v>
+        <v>534450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>582446</v>
+        <v>582575</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7472706615028549</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7103920058397852</v>
+        <v>0.7130752074572899</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7771123786267887</v>
+        <v>0.7772852785530032</v>
       </c>
     </row>
     <row r="9">
@@ -4700,7 +4700,7 @@
         <v>154824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133401</v>
+        <v>135190</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>176250</v>
@@ -4709,10 +4709,10 @@
         <v>0.2966469035153132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2555997911490892</v>
+        <v>0.2590272265310204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3376993128817041</v>
+        <v>0.3376990893424814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -4721,19 +4721,19 @@
         <v>62840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50879</v>
+        <v>49380</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76071</v>
+        <v>76250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3782749221536317</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3062734800592278</v>
+        <v>0.2972504610629876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4579197331003235</v>
+        <v>0.4589944755691664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -4742,19 +4742,19 @@
         <v>217664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>195752</v>
+        <v>193634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>246606</v>
+        <v>241981</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3163555606186748</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.284507827358832</v>
+        <v>0.2814300421298868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.358420877140165</v>
+        <v>0.3516987418288692</v>
       </c>
     </row>
     <row r="11">
@@ -4774,16 +4774,16 @@
         <v>345664</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388513</v>
+        <v>386724</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7033530964846868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6623006871182959</v>
+        <v>0.6623009106575186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7444002088509108</v>
+        <v>0.7409727734689795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -4792,19 +4792,19 @@
         <v>103283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90052</v>
+        <v>89873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115244</v>
+        <v>116743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6217250778463683</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5420802668996764</v>
+        <v>0.5410055244308333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6937265199407721</v>
+        <v>0.7027495389370123</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>449</v>
@@ -4813,19 +4813,19 @@
         <v>470372</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>441430</v>
+        <v>446055</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>492284</v>
+        <v>494402</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6836444393813252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.641579122859835</v>
+        <v>0.6483012581711307</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.715492172641168</v>
+        <v>0.7185699578701132</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>293267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>265299</v>
+        <v>261919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>324729</v>
+        <v>325721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2550955038210709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2307671295160408</v>
+        <v>0.227827392954966</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2824622992384804</v>
+        <v>0.2833248466509581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>255</v>
@@ -4938,19 +4938,19 @@
         <v>269304</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245674</v>
+        <v>244895</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>298815</v>
+        <v>298252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3260826752809665</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2974714101093325</v>
+        <v>0.2965270432874328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3618163901200465</v>
+        <v>0.361134531263228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>535</v>
@@ -4959,19 +4959,19 @@
         <v>562571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>524766</v>
+        <v>519950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>601934</v>
+        <v>601317</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2847721268972638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2656351265919788</v>
+        <v>0.2631973810604495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3046974699762358</v>
+        <v>0.3043850970910702</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>856371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>824909</v>
+        <v>823917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>884339</v>
+        <v>887719</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7449044961789291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7175377007615199</v>
+        <v>0.7166751533490425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7692328704839595</v>
+        <v>0.7721726070450341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>543</v>
@@ -5009,19 +5009,19 @@
         <v>556572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>527061</v>
+        <v>527624</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>580202</v>
+        <v>580981</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6739173247190334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6381836098799533</v>
+        <v>0.6388654687367726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7025285898906675</v>
+        <v>0.7034729567125673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1366</v>
@@ -5030,19 +5030,19 @@
         <v>1412943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1373580</v>
+        <v>1374197</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1450748</v>
+        <v>1455564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7152278731027362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6953025300237642</v>
+        <v>0.6956149029089298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7343648734080211</v>
+        <v>0.7368026189395505</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>166558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145156</v>
+        <v>144166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190821</v>
+        <v>190231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.26833637364775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.233856294795418</v>
+        <v>0.2322609352327459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3074252922060894</v>
+        <v>0.3064753775305447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -5155,19 +5155,19 @@
         <v>268891</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>242822</v>
+        <v>239781</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>296171</v>
+        <v>294681</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3642305221787315</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3289183461746027</v>
+        <v>0.324798859729802</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4011831371200104</v>
+        <v>0.3991641217381412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>414</v>
@@ -5176,19 +5176,19 @@
         <v>435449</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>398627</v>
+        <v>400176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>470977</v>
+        <v>470844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3204304843035457</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2933347859388903</v>
+        <v>0.2944741879676283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3465740436710942</v>
+        <v>0.3464765045325072</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>454148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>429885</v>
+        <v>430475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475550</v>
+        <v>476540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.73166362635225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6925747077939099</v>
+        <v>0.6935246224694548</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7661437052045817</v>
+        <v>0.7677390647672541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>447</v>
@@ -5226,19 +5226,19 @@
         <v>469353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>442073</v>
+        <v>443563</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495422</v>
+        <v>498463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6357694778212685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5988168628799896</v>
+        <v>0.6008358782618579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.671081653825397</v>
+        <v>0.6752011402701977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>882</v>
@@ -5247,19 +5247,19 @@
         <v>923501</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>887973</v>
+        <v>888106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>960323</v>
+        <v>958774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6795695156964543</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6534259563289054</v>
+        <v>0.6535234954674927</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7066652140611095</v>
+        <v>0.7055258120323715</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>44677</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33860</v>
+        <v>33323</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57789</v>
+        <v>57366</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1555900634202907</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1179180330118322</v>
+        <v>0.1160482673447325</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2012535231750178</v>
+        <v>0.1997798245348129</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>328</v>
@@ -5372,19 +5372,19 @@
         <v>367732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>334225</v>
+        <v>338522</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>400270</v>
+        <v>402359</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.339855051254499</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3088880652602674</v>
+        <v>0.3128596845174383</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3699263209094479</v>
+        <v>0.3718577618500305</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -5393,19 +5393,19 @@
         <v>412409</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>378607</v>
+        <v>375356</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>451684</v>
+        <v>446895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3012106191427758</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2765232524169609</v>
+        <v>0.2741488369638714</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3298962323164691</v>
+        <v>0.3263982562976961</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>242468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229356</v>
+        <v>229779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253285</v>
+        <v>253822</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8444099365797093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7987464768249822</v>
+        <v>0.8002201754651866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8820819669881674</v>
+        <v>0.8839517326552673</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>664</v>
@@ -5443,19 +5443,19 @@
         <v>714293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>681755</v>
+        <v>679666</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>747800</v>
+        <v>743503</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.660144948745501</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6300736790905522</v>
+        <v>0.6281422381499697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6911119347397326</v>
+        <v>0.6871403154825617</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>892</v>
@@ -5464,19 +5464,19 @@
         <v>956761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>917486</v>
+        <v>922275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>990563</v>
+        <v>993814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6987893808572242</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.670103767683531</v>
+        <v>0.6736017437023039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7234767475830391</v>
+        <v>0.7258511630361286</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>855602</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>801421</v>
+        <v>807545</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>906066</v>
+        <v>909683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2527088254336197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2367062144385241</v>
+        <v>0.2385148482233416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2676137826191755</v>
+        <v>0.2686820417617007</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1073</v>
@@ -5589,19 +5589,19 @@
         <v>1160282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1101243</v>
+        <v>1100520</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1221142</v>
+        <v>1219935</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3285431320280688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3118258960025672</v>
+        <v>0.3116211293809703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.345776372967476</v>
+        <v>0.3454345641356432</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1889</v>
@@ -5610,19 +5610,19 @@
         <v>2015883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1938033</v>
+        <v>1940610</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2087934</v>
+        <v>2097978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2914255827640285</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2801711619459807</v>
+        <v>0.280543772190417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3018414867684181</v>
+        <v>0.3032935209308336</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2530120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2479656</v>
+        <v>2476039</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2584301</v>
+        <v>2578177</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7472911745663803</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7323862173808237</v>
+        <v>0.7313179582382994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7632937855614756</v>
+        <v>0.7614851517766587</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2253</v>
@@ -5660,19 +5660,19 @@
         <v>2371314</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2310454</v>
+        <v>2311661</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2430353</v>
+        <v>2431076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6714568679719312</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6542236270325238</v>
+        <v>0.654565435864357</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6881741039974328</v>
+        <v>0.6883788706190299</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4661</v>
@@ -5681,19 +5681,19 @@
         <v>4901435</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4829384</v>
+        <v>4819340</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4979285</v>
+        <v>4976708</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7085744172359715</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6981585132315818</v>
+        <v>0.6967064790691664</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7198288380540192</v>
+        <v>0.719456227809583</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>131451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111488</v>
+        <v>111332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155374</v>
+        <v>153324</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2387338182029811</v>
+        <v>0.2387338182029812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2024772008511145</v>
+        <v>0.2021939253574192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2821804274920737</v>
+        <v>0.2784580505938213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -6048,19 +6048,19 @@
         <v>120381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105087</v>
+        <v>105704</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138433</v>
+        <v>136109</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2464742676118645</v>
+        <v>0.2464742676118644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2151609237624717</v>
+        <v>0.2164245499532272</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2834358793866749</v>
+        <v>0.2786762959254178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -6069,19 +6069,19 @@
         <v>251832</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226410</v>
+        <v>227472</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>279052</v>
+        <v>278351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2423723299281626</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2179054561799492</v>
+        <v>0.2189277192057653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2685698239135167</v>
+        <v>0.2678950145479774</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>419167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>395244</v>
+        <v>397294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439130</v>
+        <v>439286</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7612661817970189</v>
+        <v>0.761266181797019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7178195725079262</v>
+        <v>0.721541949406179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7975227991488854</v>
+        <v>0.7978060746425809</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>513</v>
@@ -6119,19 +6119,19 @@
         <v>368030</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349978</v>
+        <v>352302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>383324</v>
+        <v>382707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7535257323881356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7165641206133253</v>
+        <v>0.7213237040745818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7848390762375282</v>
+        <v>0.7835754500467726</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>934</v>
@@ -6140,19 +6140,19 @@
         <v>787197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759977</v>
+        <v>760678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>812619</v>
+        <v>811557</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7576276700718376</v>
+        <v>0.7576276700718375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7314301760864833</v>
+        <v>0.7321049854520227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7820945438200509</v>
+        <v>0.7810722807942347</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>97702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81313</v>
+        <v>80536</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117119</v>
+        <v>116725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2021929911408972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1682758662055722</v>
+        <v>0.1666687902158766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2423763258687963</v>
+        <v>0.2415610826751112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -6265,19 +6265,19 @@
         <v>99795</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85271</v>
+        <v>85311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115576</v>
+        <v>114997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2358420652916901</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2015191196323523</v>
+        <v>0.2016124188722734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2731380417422045</v>
+        <v>0.2717693861661712</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -6286,19 +6286,19 @@
         <v>197497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175520</v>
+        <v>174903</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221337</v>
+        <v>220711</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2179024706035292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1936545321649276</v>
+        <v>0.1929744236047375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2442061476135954</v>
+        <v>0.2435150841647453</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>385510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>366093</v>
+        <v>366487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>401899</v>
+        <v>402676</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7978070088591028</v>
+        <v>0.7978070088591027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7576236741312037</v>
+        <v>0.7584389173248888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8317241337944279</v>
+        <v>0.8333312097841232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -6336,19 +6336,19 @@
         <v>323348</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307567</v>
+        <v>308146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337872</v>
+        <v>337832</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7641579347083098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7268619582577955</v>
+        <v>0.7282306138338287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7984808803676477</v>
+        <v>0.7983875811277267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>822</v>
@@ -6357,19 +6357,19 @@
         <v>708858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>685018</v>
+        <v>685644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730835</v>
+        <v>731452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7820975293964708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7557938523864045</v>
+        <v>0.7564849158352546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8063454678350725</v>
+        <v>0.8070255763952624</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>97009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79392</v>
+        <v>79894</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116188</v>
+        <v>114836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2056973376413039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1683425642249251</v>
+        <v>0.1694059169255177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2463635905962984</v>
+        <v>0.2434970005514941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -6482,19 +6482,19 @@
         <v>53623</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42849</v>
+        <v>43316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64474</v>
+        <v>64411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2866543661393018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2290571217601571</v>
+        <v>0.2315543401650343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3446606143943276</v>
+        <v>0.3443233728097038</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -6503,19 +6503,19 @@
         <v>150632</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130509</v>
+        <v>131239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173739</v>
+        <v>172753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2286892817264469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1981382779211999</v>
+        <v>0.1992461182120272</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2637701606718935</v>
+        <v>0.2622726260802113</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>374603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>355424</v>
+        <v>356776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392220</v>
+        <v>391718</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7943026623586962</v>
+        <v>0.7943026623586961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7536364094037017</v>
+        <v>0.7565029994485059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.831657435775075</v>
+        <v>0.8305940830744822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>209</v>
@@ -6553,19 +6553,19 @@
         <v>133442</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122591</v>
+        <v>122654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144216</v>
+        <v>143749</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.713345633860698</v>
+        <v>0.7133456338606982</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6553393856056722</v>
+        <v>0.6556766271902962</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7709428782398429</v>
+        <v>0.7684456598349655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>592</v>
@@ -6574,19 +6574,19 @@
         <v>508045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>484938</v>
+        <v>485924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>528168</v>
+        <v>527438</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.771310718273553</v>
+        <v>0.7713107182735531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7362298393281065</v>
+        <v>0.7377273739197889</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8018617220788002</v>
+        <v>0.8007538817879726</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>231160</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>205285</v>
+        <v>203850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261148</v>
+        <v>260453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.204354077447747</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1814797878629239</v>
+        <v>0.180211166548697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.230864219957556</v>
+        <v>0.2302495685504277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>308</v>
@@ -6699,19 +6699,19 @@
         <v>216538</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193839</v>
+        <v>195866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>240662</v>
+        <v>238954</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2517472776044863</v>
+        <v>0.2517472776044864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2253576154445526</v>
+        <v>0.2277139372035157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2797937267391327</v>
+        <v>0.2778074228067932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>547</v>
@@ -6720,19 +6720,19 @@
         <v>447698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>412527</v>
+        <v>413351</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>483936</v>
+        <v>485758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2248253806722176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2071629102498435</v>
+        <v>0.2075767663782895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2430233226275775</v>
+        <v>0.2439379508097504</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>900015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>870027</v>
+        <v>870722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>925890</v>
+        <v>927325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7956459225522529</v>
+        <v>0.7956459225522531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7691357800424438</v>
+        <v>0.7697504314495722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8185202121370759</v>
+        <v>0.8197888334513029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>921</v>
@@ -6770,19 +6770,19 @@
         <v>643603</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>619479</v>
+        <v>621187</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>666302</v>
+        <v>664275</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7482527223955135</v>
+        <v>0.7482527223955137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7202062732608673</v>
+        <v>0.7221925771932066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7746423845554472</v>
+        <v>0.7722860627964844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1799</v>
@@ -6791,19 +6791,19 @@
         <v>1543618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1507380</v>
+        <v>1505558</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1578789</v>
+        <v>1577965</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7751746193277824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7569766773724226</v>
+        <v>0.7560620491902498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7928370897501564</v>
+        <v>0.7924232336217107</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>95951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78164</v>
+        <v>76822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114683</v>
+        <v>114954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.169208998585084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1378417330461278</v>
+        <v>0.1354748867473237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2022418007392442</v>
+        <v>0.2027194639608716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>343</v>
@@ -6916,19 +6916,19 @@
         <v>218140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197218</v>
+        <v>197186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240470</v>
+        <v>239975</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2627034548423946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2375075089369992</v>
+        <v>0.2374693552820262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2895952423020873</v>
+        <v>0.2889990055762903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>444</v>
@@ -6937,19 +6937,19 @@
         <v>314091</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>287543</v>
+        <v>285826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>343631</v>
+        <v>340907</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2247644879109279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2057667672129934</v>
+        <v>0.2045382467996714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2459031800169837</v>
+        <v>0.2439542505855584</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>471107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>452375</v>
+        <v>452104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>488894</v>
+        <v>490236</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.830791001414916</v>
+        <v>0.8307910014149159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7977581992607558</v>
+        <v>0.7972805360391284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8621582669538721</v>
+        <v>0.8645251132526764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>946</v>
@@ -6987,19 +6987,19 @@
         <v>612225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>589895</v>
+        <v>590390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>633147</v>
+        <v>633179</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7372965451576053</v>
+        <v>0.7372965451576055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7104047576979128</v>
+        <v>0.7110009944237098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7624924910630009</v>
+        <v>0.7625306447179739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1391</v>
@@ -7008,19 +7008,19 @@
         <v>1083332</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1053792</v>
+        <v>1056516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1109880</v>
+        <v>1111597</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7752355120890722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7540968199830164</v>
+        <v>0.7560457494144415</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7942332327870067</v>
+        <v>0.7954617532003286</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>21416</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11312</v>
+        <v>11064</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37513</v>
+        <v>39783</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09027715342096103</v>
+        <v>0.09027715342096101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04768311113488044</v>
+        <v>0.04663773793097199</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.158132508505412</v>
+        <v>0.1677013948097978</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>278</v>
@@ -7133,19 +7133,19 @@
         <v>194689</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>169830</v>
+        <v>172805</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>217024</v>
+        <v>217482</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2311974537248468</v>
+        <v>0.2311974537248467</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2016766082022701</v>
+        <v>0.2052099712538124</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2577204027297772</v>
+        <v>0.2582648932097915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>290</v>
@@ -7154,19 +7154,19 @@
         <v>216105</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>188841</v>
+        <v>190791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246835</v>
+        <v>243413</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2002240056828295</v>
+        <v>0.2002240056828294</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1749635107925517</v>
+        <v>0.1767695657129563</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2286953267373038</v>
+        <v>0.2255249583313708</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>215812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199715</v>
+        <v>197445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225916</v>
+        <v>226164</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.909722846579039</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8418674914945883</v>
+        <v>0.832298605190202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9523168888651197</v>
+        <v>0.953362262069028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>878</v>
@@ -7204,19 +7204,19 @@
         <v>647401</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>625066</v>
+        <v>624608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>672260</v>
+        <v>669285</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7688025462751532</v>
+        <v>0.7688025462751531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.742279597270223</v>
+        <v>0.7417351067902087</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7983233917977298</v>
+        <v>0.7947900287461876</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>978</v>
@@ -7225,19 +7225,19 @@
         <v>863213</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>832483</v>
+        <v>835905</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>890477</v>
+        <v>888527</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7997759943171708</v>
+        <v>0.7997759943171704</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7713046732626961</v>
+        <v>0.7744750416686292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8250364892074483</v>
+        <v>0.8232304342870437</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>674690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>627173</v>
+        <v>624940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>721035</v>
+        <v>726133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1960794574008614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1822699936170213</v>
+        <v>0.181621083823317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2095482297396895</v>
+        <v>0.2110299179994787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1323</v>
@@ -7350,19 +7350,19 @@
         <v>903166</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>856105</v>
+        <v>853310</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>949629</v>
+        <v>944695</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2487227137493626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2357627480252539</v>
+        <v>0.234992873003511</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2615181983865887</v>
+        <v>0.2601593751225862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2020</v>
@@ -7371,19 +7371,19 @@
         <v>1577856</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1509444</v>
+        <v>1509983</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1642468</v>
+        <v>1651092</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.223109408082242</v>
+        <v>0.2231094080822421</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2134359647788706</v>
+        <v>0.213512150879259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2322456602532949</v>
+        <v>0.233465039079344</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2766212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2719867</v>
+        <v>2714769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2813729</v>
+        <v>2815962</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8039205425991387</v>
+        <v>0.8039205425991386</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7904517702603105</v>
+        <v>0.7889700820005213</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8177300063829788</v>
+        <v>0.8183789161766829</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3915</v>
@@ -7421,19 +7421,19 @@
         <v>2728049</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2681586</v>
+        <v>2686520</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2775110</v>
+        <v>2777905</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7512772862506374</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7384818016134114</v>
+        <v>0.7398406248774139</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7642372519747459</v>
+        <v>0.7650071269964891</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6516</v>
@@ -7442,19 +7442,19 @@
         <v>5494261</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5429649</v>
+        <v>5421025</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5562673</v>
+        <v>5562134</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7768905919177579</v>
+        <v>0.7768905919177581</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7677543397467052</v>
+        <v>0.766534960920656</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7865640352211294</v>
+        <v>0.7864878491207414</v>
       </c>
     </row>
     <row r="24">
